--- a/PNS_실습8/acme_list.xlsx
+++ b/PNS_실습8/acme_list.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSH\Documents\UiPath\PNS_실습8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSH\Documents\UiPath\H_RPA\PNS_실습8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="0" windowWidth="13425" windowHeight="10275"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="15495" windowHeight="10635"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="17">
   <si>
     <t>Actions</t>
   </si>
@@ -54,6 +53,12 @@
     <t>Open</t>
   </si>
   <si>
+    <t>Generate Yearly Report for Vendor</t>
+  </si>
+  <si>
+    <t>WI4</t>
+  </si>
+  <si>
     <t>Verify Account Position</t>
   </si>
   <si>
@@ -66,22 +71,10 @@
     <t>WI3</t>
   </si>
   <si>
-    <t>고객ID</t>
+    <t>Calculate Client Security Hash</t>
   </si>
   <si>
-    <t>고객명</t>
-  </si>
-  <si>
-    <t>고객주소</t>
-  </si>
-  <si>
-    <t>RW82952</t>
-  </si>
-  <si>
-    <t>Jesica Rutt</t>
-  </si>
-  <si>
-    <t>GrolmanstraÃƒÅ¸e 15</t>
+    <t>WI5</t>
   </si>
 </sst>
 </file>
@@ -414,78 +407,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>665292</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43295</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -511,7 +435,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>665292</v>
+        <v>458172</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -523,12 +447,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>43295</v>
+        <v>43651</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>933781</v>
+        <v>811014</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -540,29 +464,29 @@
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>43332</v>
+        <v>43181</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>770871</v>
+        <v>123601</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>43441</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>456281</v>
+        <v>136914</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -574,24 +498,1503 @@
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>43594</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>221973</v>
+        <v>753313</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>42930</v>
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>921821</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>297252</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>231174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>987112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>459432</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>854652</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>820595</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>213682</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>844171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>939355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>684835</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>854391</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>222771</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>452934</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>952662</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>570822</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43367</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>253855</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43262</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>758575</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>433804</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>660352</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>759605</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>444942</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>313521</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>776241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>730194</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>172961</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>453225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>430682</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>42829</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>514374</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>794025</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>946772</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>219372</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>231922</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>863363</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>597861</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>262811</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>43346</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>696593</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>934372</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>322031</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>903471</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>874652</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>974664</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>925173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>958001</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>42973</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>292265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>144901</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>297241</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>468192</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>404134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>800621</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="1">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>865974</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>639123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>473391</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1">
+        <v>42995</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>665795</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>485882</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>762641</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>483493</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>286372</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>901701</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>351802</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="1">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>275055</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1">
+        <v>43340</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>871831</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>700032</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>389884</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>980431</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>427243</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="1">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>874304</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>887413</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1">
+        <v>42786</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>329451</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1">
+        <v>42906</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>847672</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>742411</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>323891</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>503512</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>334002</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>334523</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="1">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>922355</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>761863</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="1">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>249465</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="1">
+        <v>43048</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>567874</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="1">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>510962</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="1">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>146232</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="1">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>280211</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1">
+        <v>43295</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>548384</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>123882</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="1">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>944481</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>456692</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="1">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>428371</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="1">
+        <v>42789</v>
       </c>
     </row>
   </sheetData>
